--- a/src/csv/story.xlsx
+++ b/src/csv/story.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\組織行為\OB_Team7_WebGame\src\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ker\Desktop\Document\112-1\組織\OB_Team7_WebGame\src\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F7C4C6-32DE-4167-8AAC-D8C74BBA38B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DDA773-AB5C-420F-8F02-8672054B6AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>從前有位公主被惡龍抓走了，國王在茫茫國民之中總算找到一名擁有強大潛力的勇者，但這位勇者目前擁有飢餓、裝備破爛、精神不濟等等負面buff，此時國王…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +109,216 @@
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告訴勇者讀萬卷書不如行萬里路，唯有立刻動身冒險才是勇者之路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請出騎士團長和教練成為勇者前期夥伴，設定路上的訓練計畫，提升勇者體能與戰鬥技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者遭遇史萊姆，等級不足打不過，被史萊姆蹭一下血條直接歸零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功拾回自信的勇者陷入茫然，雖然他有信心能辦到國王的請託，救回公主，但是沒有任何戰鬥經驗的他不知從哪裡出發學習，也擔心學習錯方向，沒有任何成長，此時國王應該…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身體健康、裝備齊全、等級足夠，處於完美狀態的勇者逐漸靠近前往惡龍巢穴的所在地，但是勇者又開始感到迷茫，現在的他除了擁有一身戰鬥的本領以外一無是處，打倒惡龍後的他又該何去何從，這時國王應該說…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在的你可不是一無是處，等你打倒惡龍，你會更能知道你能做到甚麼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這種事情等打倒惡龍再說，想再多有甚麼用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者的玻璃心破碎，心灰意冷的他在遇到史萊姆後坐以待斃，被史萊姆一招秒殺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者在與惡龍戰鬥的過程中陷入困難，縱使勇者本領已冠絕天下，但面對惡龍這等絕世兇獸也落入了下風，此時國王應該…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默默關注勇者，等待結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站到勇者身邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者與惡龍同歸於盡，可喜可賀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「國王！您……！」
+國王——前代勇者拔出身後寶劍，與勇者並肩作戰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者成功救回了公主，在公主的感動請求中，與國王的領導魅力吸引下，勇者成為了公主的後媽，與國王、公主過著幸福快樂的生活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy_ending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主在屠龍的路上經過了一個新的村莊，發現到有了飢荒的問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>給予它們身上8成食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回去拿食物給這些平民百姓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主餓死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主回去拿食物給平民百姓
+經過了小河需要渡河才能到有巨龍巢穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在當地駐營等明天再跟民眾要船前往巨龍巢穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接去跟當地的民眾要船繼續前往巨龍巢穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主累死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到了隔天公主，出發用民眾給予的小船前往對岸，到達對岸時，時不時會想起自己的家人，以及民眾的期待而前行著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之後公主經過了火山地帶，她感受到了強烈的炎熱，士兵和她自己都極度脫水。在這艱難的時刻，公主決定尊重大家的決定，特別是對水的需求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往回走回去小溪那重新裝小溪的水補充體力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繼續往前走期待前面有水源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主和士兵們成功通過火山地帶。並找到了這片水源旁休息的同時，公主聽到了村民的聲音。原來，這片地區是他們的領土，並且他們提供了更多的食物和水源。公主和士兵們與村民們友好相處，得到了更多的支援和協助，提高了公主的聲望以及期待。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在村莊待一個晚上讓士兵和公主休息一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不顧一切繼續往前走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵和公主都體力不支倒在路旁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔天繼續的前行公主發現到了勇者的安全以及自身的安全受到了極大的威脅，對於這項任務抱著誓死如歸的心情前進著，之後來到了巨龍的巢穴附近。在這裡，她發現龍巢附近的村民也面臨著危險。龍巢前有一位老者，他告訴公主，巨龍每天都會出來獵食。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>與老者商量，共同制定對抗巨龍的計劃。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略老者的話，獨自進入巨龍巢穴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接被巨龍發現被燒成灰燼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主和老者商定了一項計劃，集結了村莊的年輕人，共同製作了陷阱和武器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在夜晚潛入巨龍巢穴，試圖解決巨龍的問題。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趁巨龍離開時潛入了巨龍巢穴發現到了巢穴內有龍蛋已經孵化出來了小龍，小龍看到了陌生人進到自己的窩內突然叫了一下還好巨龍不在，並且在旁邊看到了被綁走奄奄一息的勇者，趕快帶他撤回來商量，休息了一下後討論處置小龍和巨龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜晚潛入了巨龍巢穴發現到了巢穴內有龍蛋已經孵化出來了小龍，小龍看到了陌生人進到自己的窩內突然叫了一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快點跑不然要被發現了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝小龍在巢穴內一起叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被燒死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自欺欺龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad_ending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待白天，趁巨龍離開時搜尋巢穴內情況。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照公主的提議把她打服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照勇者的提議把她殺了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最終在勇者跟公主和士兵們的努力之下巨龍屈服了，公主和勇者們決定讓龍帶著他們的孩子們到更遠的山頭去生活，之後，公主成功的帶者勇者和士兵們返回王宮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫無龍性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy_ending</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +381,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +397,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -224,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,6 +470,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -541,26 +761,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.796875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="5"/>
+    <col min="1" max="1" width="10.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -581,10 +801,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -595,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -606,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="102" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -622,36 +842,36 @@
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.4">
+      <c r="G4" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="6">
         <v>5</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="12"/>
@@ -659,35 +879,35 @@
       <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6">
         <v>6</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="12"/>
@@ -695,525 +915,800 @@
       <c r="F8" s="12"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
+      <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="13" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="13" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="6">
+      <c r="B13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="6">
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="16" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="6">
+        <v>22</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="6">
+        <v>25</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="6">
+        <v>27</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="6">
+        <v>30</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="6">
+        <v>32</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="6">
+        <v>33</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B35" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="6">
+        <v>34</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="6">
+        <v>38</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B39" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B40" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>110</v>
       </c>

--- a/src/csv/story.xlsx
+++ b/src/csv/story.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\組織行為\OB_Team7_WebGame\src\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\abc20\Desktop\四上\組織行為\OB_Team7_WebGame\src\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F7C4C6-32DE-4167-8AAC-D8C74BBA38B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B80D045-A8E8-487C-B571-2FB5C85184AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,61 +58,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相信勇者的潛力</t>
+  </si>
+  <si>
+    <t>直接讓勇者上路，勇者被史萊姆幹掉</t>
+  </si>
+  <si>
+    <t>勇者雖然整裝待發，準備冒險，但過往一直過著地位低下的生活，使他沒有信心能夠討伐巨龍，這時國王說道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者認為自己當不成聖人，選擇臨陣脫逃時被史萊姆吞掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「你可是勇者，勇者就是能扛下一切壓力，突破一切困難之聖人」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「茫茫國民中我只選中你，代表你有足夠的潛力使我相信你能拯救公主」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad_ending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>給予勇者足夠的後勤支援以滿足他的生理需求與安全需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔大陸的不死者之王被前代勇者討伐，王國迎來和平歲月，然而二十年後的現今，盤踞在北方山脈的惡龍突然現蹤，惡龍對王國發動襲擊並掠走王國的公主。在星辰的啟示下，國王找到了一名擁有強大潛力的勇者，但這名勇者目前吃不飽穿不暖，裝備又破又爛，睡眠不足且精神不濟，是個孤兒又沒有房子，此時國王…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功拾回自信的勇者陷入茫然，雖然他有信心能辦到國王的請託，救回公主，但是沒有任何戰鬥經驗的他不知從哪裡出發學習，也擔心學習錯方向，沒有任何成長，此時國王應該…</t>
+  </si>
+  <si>
     <t>耳邊傳來迷之聲，好像...是組織行為老師的聲音：「可憐的孩紙，因為北科生活過度勞累倒下，而你/妳因為具備優秀的組織行為知識，所以被轉生到這個正面臨著巨大的危機的異世界，只有你/妳能夠拯救它，選擇天職吧！」</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>勇者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>從前有位公主被惡龍抓走了，國王在茫茫國民之中總算找到一名擁有強大潛力的勇者，但這位勇者目前擁有飢餓、裝備破爛、精神不濟等等負面buff，此時國王…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>給予勇者足夠的後勤支援</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相信勇者的潛力</t>
-  </si>
-  <si>
-    <t>直接讓勇者上路，勇者被史萊姆幹掉</t>
-  </si>
-  <si>
-    <t>勇者雖然整裝待發，準備冒險，但過往一直過著地位低下的生活，使他沒有信心能夠討伐巨龍，這時國王說道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇者認為自己當不成聖人，選擇臨陣脫逃時被史萊姆吞掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「你可是勇者，勇者就是能扛下一切壓力，突破一切困難之聖人」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「茫茫國民中我只選中你，代表你有足夠的潛力使我相信你能拯救公主」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bad_ending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
+    <t>國王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -541,26 +547,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.796875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="5"/>
+    <col min="1" max="1" width="10.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -581,10 +587,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -595,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -606,88 +612,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="102" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6">
         <v>5</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="12"/>
       <c r="E6" s="10"/>
       <c r="F6" s="12"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.4">
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="6">
         <v>6</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="12"/>
@@ -695,525 +701,528 @@
       <c r="F8" s="12"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>110</v>
       </c>
@@ -1221,5 +1230,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>